--- a/medicine/Handicap/Profil_psychoéducatif_révisé/Profil_psychoéducatif_révisé.xlsx
+++ b/medicine/Handicap/Profil_psychoéducatif_révisé/Profil_psychoéducatif_révisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Profil_psycho%C3%A9ducatif_r%C3%A9vis%C3%A9</t>
+          <t>Profil_psychoéducatif_révisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le profil psycho-éducatif est un outil d’évaluation pour enfant autiste ou présentant un trouble envahissant du développement. Il a été développé initialement par Eric Schopler et Robert Reichler en 1979 et révisé par Schopler et ses collègues en 1990, à la Division TEACCH (Treatment and Education for Autistic and related Communication handicapped CHildren) à l’Université de Chapel Hill en Caroline du Nord.
 Ce test est adapté à des enfants de niveau préscolaire, c’est-à-dire entre 6 mois et 7 ans. Il évalue les comportements des élèves et leur développement dans sept domaines différents. L’échelle des comportements comprend le langage, les relations et l’affect, les réponses sensorielles ainsi que le jeu et l’intérêt pour le matériel. L’échelle de développement évalue l’imitation, la perception, la motricité fine, la motricité globale, la coordination oculo-manuelle, la performance cognitive et la cognition verbale. Le test utilise trois cotations pour chaque item, « Réussite », « Échec » ou « Émergence » pour les items de développement et « Approprié », « Léger » ou « Sévère » pour les items de comportement. 
